--- a/SuppTables/Supplementary_Table_5-prediction_feature.xlsx
+++ b/SuppTables/Supplementary_Table_5-prediction_feature.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingli\Box\research\arabidopsis\NAR\Supplementary Tables\Supplementary Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingli\github\orphan-prediction\SuppTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED74D1-0F82-4F46-9857-824FCF4175F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14110322-70B5-471E-8C69-59ED7CBC3CB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7425" xr2:uid="{483BF374-DB75-4499-AB8D-6458C3487032}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>incorrect fusions of splice junctions</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Make-Orphan</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t xml:space="preserve">Supplementary Table S5-C. All predictions  by gene features for rice. Eight scenarios of datasets plus pipelines. Numbers represent  predictions  that match NCBI-annotated genes and predictions  that are novel. </t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -482,24 +482,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,6 +498,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A35AA6-0338-40BC-9DA9-51EF5525724A}">
   <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15"/>
@@ -857,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="33" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -906,18 +906,18 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32" t="s">
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="45">
       <c r="A3" s="22"/>
@@ -925,10 +925,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>7</v>
@@ -937,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>8</v>
@@ -946,46 +946,46 @@
         <v>9</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="M3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="T3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="W3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -3336,16 +3336,16 @@
         <v>49</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C37" s="15">
         <v>110</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F37" s="15">
         <v>483</v>
@@ -3354,19 +3354,19 @@
         <v>1334</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="J37" s="16">
         <v>0</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M37" s="16">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="P37" s="15">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="39" spans="1:23" ht="36.75" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3431,27 +3431,27 @@
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="25" t="s">
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28" t="s">
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25" t="s">
+      <c r="J40" s="30"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
     </row>
     <row r="41" spans="1:23" ht="45">
       <c r="A41" s="22"/>
@@ -3459,43 +3459,43 @@
         <v>5</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="H41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="10" t="s">
+      <c r="L41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="M41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N41" s="11" t="s">
+      <c r="O41" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -5054,7 +5054,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C75" s="15">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="77" spans="1:15" ht="51.75" customHeight="1">
       <c r="A77" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -5117,22 +5117,22 @@
       <c r="B78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25" t="s">
+      <c r="D78" s="33"/>
+      <c r="E78" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="23" t="s">
+      <c r="F78" s="34"/>
+      <c r="G78" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="25" t="s">
+      <c r="H78" s="33"/>
+      <c r="I78" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J78" s="27"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="1:15" ht="45">
       <c r="A79" s="22"/>
@@ -5140,22 +5140,22 @@
         <v>5</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="H79" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="I79" s="19" t="s">
         <v>47</v>
@@ -6225,7 +6225,7 @@
         <v>49</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C113" s="15">
         <v>626</v>
@@ -6254,22 +6254,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:O40"/>
     <mergeCell ref="A77:J77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="G78:H78"/>
     <mergeCell ref="I78:J78"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="A39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
